--- a/CarParts_Pricing.xlsx
+++ b/CarParts_Pricing.xlsx
@@ -1,52 +1,205 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derek\Dropbox (Personal)\Cars\Price-Puller---Parts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7602E422-C4BB-49ED-B070-324EA69AE77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="E46 M3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9th Gen Accord" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="E46 M3" sheetId="1" r:id="rId1"/>
+    <sheet name="9th Gen Accord" sheetId="2" r:id="rId2"/>
+    <sheet name="991 GT3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BMW Z4 M3 Clutch Flywheel</t>
+  </si>
+  <si>
+    <t>BMW E46 M3 Clutch Kit</t>
+  </si>
+  <si>
+    <t>BMW Clutch Slave Cylinder OEM</t>
+  </si>
+  <si>
+    <t>BMW Clutch Pilot Bearing</t>
+  </si>
+  <si>
+    <t>BMW Differential Cover Kit</t>
+  </si>
+  <si>
+    <t>BMW Oil Change Kit</t>
+  </si>
+  <si>
+    <t>BMW Cabin Air Filter</t>
+  </si>
+  <si>
+    <t>BMW Wiper Blade Set</t>
+  </si>
+  <si>
+    <t>Fuel Injection Cleaner</t>
+  </si>
+  <si>
+    <t>Rear Trunk Lid Emblem</t>
+  </si>
+  <si>
+    <t>Fuel System Cleaner</t>
+  </si>
+  <si>
+    <t>Part # / SKU</t>
+  </si>
+  <si>
+    <t>LUK-4150175100</t>
+  </si>
+  <si>
+    <t>LUK-6243574000</t>
+  </si>
+  <si>
+    <t>FTE-3101322</t>
+  </si>
+  <si>
+    <t>FAG-6002C2HRS</t>
+  </si>
+  <si>
+    <t>KIT-33112282482KT</t>
+  </si>
+  <si>
+    <t>KIT-11427833769KT2</t>
+  </si>
+  <si>
+    <t>CTO-21652336</t>
+  </si>
+  <si>
+    <t>BOS-3397118909</t>
+  </si>
+  <si>
+    <t>MOL-LM2007</t>
+  </si>
+  <si>
+    <t>BMW-51148219237</t>
+  </si>
+  <si>
+    <t>MOL-LM2030</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Price (USD)</t>
+  </si>
+  <si>
+    <t>Headlight Upgrade Bulb</t>
+  </si>
+  <si>
+    <t>PHI-H11CVPS2</t>
+  </si>
+  <si>
+    <t>Unnamed Product</t>
+  </si>
+  <si>
+    <t>KIT-99136108190KT4</t>
+  </si>
+  <si>
+    <t>SNR-R15466</t>
+  </si>
+  <si>
+    <t>BOS-3397007697</t>
+  </si>
+  <si>
+    <t>KIT-991GT3OILKT7</t>
+  </si>
+  <si>
+    <t>CON-6PK1755</t>
+  </si>
+  <si>
+    <t>HEN-E1722L</t>
+  </si>
+  <si>
+    <t>HEN-E3940LB</t>
+  </si>
+  <si>
+    <t>HEN-E3945LB</t>
+  </si>
+  <si>
+    <t>KIT-99135140581KT2</t>
+  </si>
+  <si>
+    <t>CTA-5016</t>
+  </si>
+  <si>
+    <t>POR-9P1012243</t>
+  </si>
+  <si>
+    <t>KIT-9G132102500KT1</t>
+  </si>
+  <si>
+    <t>Porsche Brake Kit</t>
+  </si>
+  <si>
+    <t>Porsche Center Lock Wheel Nut Kit</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="00000000"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -65,93 +218,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -439,205 +536,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="27" customWidth="1" min="2" max="2"/>
-    <col width="23" customWidth="1" min="3" max="3"/>
-    <col width="31" customWidth="1" min="4" max="4"/>
-    <col width="26" customWidth="1" min="5" max="5"/>
-    <col width="28" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="22" customWidth="1" min="8" max="8"/>
-    <col width="21" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" min="10" max="10"/>
-    <col width="23" customWidth="1" min="11" max="11"/>
-    <col width="21" customWidth="1" min="12" max="12"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>BMW Z4 M3 Clutch Flywheel</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>BMW E46 M3 Clutch Kit</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>BMW Clutch Slave Cylinder OEM</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>BMW Clutch Pilot Bearing</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>BMW Differential Cover Kit</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>BMW Oil Change Kit</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>BMW Cabin Air Filter</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>BMW Wiper Blade Set</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Fuel Injection Cleaner</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>Rear Trunk Lid Emblem</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Fuel System Cleaner</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Part # / SKU</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>LUK-4150175100</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>LUK-6243574000</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>FTE-3101322</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>FAG-6002C2HRS</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>KIT-33112282482KT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>KIT-11427833769KT2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>CTO-21652336</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>BOS-3397118909</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>MOL-LM2007</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>BMW-51148219237</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>MOL-LM2030</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Price (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="n">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>45771</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="4">
         <v>460.99</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="4">
         <v>407.99</v>
       </c>
-      <c r="D4" s="7" t="n">
-        <v>90.98999999999999</v>
-      </c>
-      <c r="E4" s="7" t="n">
+      <c r="D4" s="4">
+        <v>90.99</v>
+      </c>
+      <c r="E4" s="4">
         <v>6.39</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="4">
         <v>345.44</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="4">
         <v>79.87</v>
       </c>
-      <c r="H4" s="7" t="n">
+      <c r="H4" s="4">
         <v>18.89</v>
       </c>
-      <c r="I4" s="7" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="J4" s="7" t="n">
+      <c r="I4" s="4">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="J4" s="4">
         <v>9.19</v>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="K4" s="4">
         <v>52.99</v>
       </c>
-      <c r="L4" s="7" t="n">
-        <v>18.69</v>
+      <c r="L4" s="4">
+        <v>18.690000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>45772</v>
+      </c>
+      <c r="B5" s="5">
+        <v>460.99</v>
+      </c>
+      <c r="C5" s="5">
+        <v>407.99</v>
+      </c>
+      <c r="D5" s="5">
+        <v>90.99</v>
+      </c>
+      <c r="E5" s="5">
+        <v>6.39</v>
+      </c>
+      <c r="F5" s="5">
+        <v>345.44</v>
+      </c>
+      <c r="G5" s="5">
+        <v>79.87</v>
+      </c>
+      <c r="H5" s="5">
+        <v>18.89</v>
+      </c>
+      <c r="I5" s="5">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="J5" s="5">
+        <v>9.19</v>
+      </c>
+      <c r="K5" s="5">
+        <v>52.99</v>
+      </c>
+      <c r="L5" s="5">
+        <v>18.690000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -645,81 +734,73 @@
     <mergeCell ref="B3:L3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C1" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D1" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E1" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F1" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G1" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H1" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I1" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="J1" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K1" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L1" r:id="rId11"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D1" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E1" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F1" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G1" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H1" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I1" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J1" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K1" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L1" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Headlight Upgrade Bulb</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Part # / SKU</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PHI-H11CVPS2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Price (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="n">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>45771</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="4">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>45772</v>
+      </c>
+      <c r="B5" s="5">
         <v>51.99</v>
       </c>
     </row>
@@ -728,7 +809,195 @@
     <mergeCell ref="B3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>45772</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1575.92</v>
+      </c>
+      <c r="C5" s="5">
+        <v>206.99</v>
+      </c>
+      <c r="D5" s="5">
+        <v>27.29</v>
+      </c>
+      <c r="E5" s="5">
+        <v>134.33000000000001</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20.09</v>
+      </c>
+      <c r="G5" s="5">
+        <v>28.89</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45.29</v>
+      </c>
+      <c r="I5" s="5">
+        <v>15.79</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3826.37</v>
+      </c>
+      <c r="K5" s="5">
+        <v>162.63</v>
+      </c>
+      <c r="L5" s="5">
+        <v>9.19</v>
+      </c>
+      <c r="M5" s="5">
+        <v>345.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:M3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="Unnamed Product" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D1" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E1" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="F1" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="G1" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="H1" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="I1" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="J1" r:id="rId9" display="Unnamed Product" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="K1" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="L1" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="M1" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CarParts_Pricing.xlsx
+++ b/CarParts_Pricing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derek\Dropbox (Personal)\Cars\Price-Puller---Parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7602E422-C4BB-49ED-B070-324EA69AE77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B4D649-D4F8-4287-9165-942395B0053C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-2750" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E46 M3" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -145,12 +145,6 @@
   </si>
   <si>
     <t>KIT-9G132102500KT1</t>
-  </si>
-  <si>
-    <t>Porsche Brake Kit</t>
-  </si>
-  <si>
-    <t>Porsche Center Lock Wheel Nut Kit</t>
   </si>
 </sst>
 </file>
@@ -161,7 +155,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +190,16 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -230,7 +234,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -537,15 +542,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
@@ -639,19 +644,19 @@
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -726,6 +731,44 @@
         <v>52.99</v>
       </c>
       <c r="L5" s="5">
+        <v>18.690000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45773</v>
+      </c>
+      <c r="B6" s="7">
+        <v>460.99</v>
+      </c>
+      <c r="C6" s="7">
+        <v>407.99</v>
+      </c>
+      <c r="D6" s="7">
+        <v>90.99</v>
+      </c>
+      <c r="E6" s="7">
+        <v>6.39</v>
+      </c>
+      <c r="F6" s="7">
+        <v>345.44</v>
+      </c>
+      <c r="G6" s="7">
+        <v>79.87</v>
+      </c>
+      <c r="H6" s="7">
+        <v>18.89</v>
+      </c>
+      <c r="I6" s="7">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="J6" s="7">
+        <v>9.19</v>
+      </c>
+      <c r="K6" s="7">
+        <v>52.99</v>
+      </c>
+      <c r="L6" s="7">
         <v>18.690000000000001</v>
       </c>
     </row>
@@ -752,7 +795,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -760,7 +803,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -784,7 +827,7 @@
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -801,6 +844,14 @@
         <v>45772</v>
       </c>
       <c r="B5" s="5">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45773</v>
+      </c>
+      <c r="B6" s="7">
         <v>51.99</v>
       </c>
     </row>
@@ -817,34 +868,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="13" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>28</v>
@@ -868,7 +909,7 @@
         <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>28</v>
@@ -925,20 +966,20 @@
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -978,6 +1019,47 @@
         <v>9.19</v>
       </c>
       <c r="M5" s="5">
+        <v>345.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45773</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1575.92</v>
+      </c>
+      <c r="C6" s="7">
+        <v>206.99</v>
+      </c>
+      <c r="D6" s="7">
+        <v>27.29</v>
+      </c>
+      <c r="E6" s="7">
+        <v>134.33000000000001</v>
+      </c>
+      <c r="F6" s="7">
+        <v>20.09</v>
+      </c>
+      <c r="G6" s="7">
+        <v>28.89</v>
+      </c>
+      <c r="H6" s="7">
+        <v>45.29</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15.79</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3826.37</v>
+      </c>
+      <c r="K6" s="7">
+        <v>162.63</v>
+      </c>
+      <c r="L6" s="7">
+        <v>9.19</v>
+      </c>
+      <c r="M6" s="7">
         <v>345.93</v>
       </c>
     </row>
@@ -986,7 +1068,7 @@
     <mergeCell ref="B3:M3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="Unnamed Product" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="C1" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="D1" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
     <hyperlink ref="E1" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
@@ -994,7 +1076,7 @@
     <hyperlink ref="G1" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
     <hyperlink ref="H1" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
     <hyperlink ref="I1" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="J1" r:id="rId9" display="Unnamed Product" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="J1" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
     <hyperlink ref="K1" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
     <hyperlink ref="L1" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
     <hyperlink ref="M1" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
